--- a/biology/Médecine/Pandémie_de_Covid-19_au_Monténégro/Pandémie_de_Covid-19_au_Monténégro.xlsx
+++ b/biology/Médecine/Pandémie_de_Covid-19_au_Monténégro/Pandémie_de_Covid-19_au_Monténégro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Mont%C3%A9n%C3%A9gro</t>
+          <t>Pandémie_de_Covid-19_au_Monténégro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé. Au Monténégro, le premier cas est confirmé le 17 mars 2020[2],[3], ce qui en fait le dernier pays européen à enregistrer un cas de SARS-CoV-2[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé. Au Monténégro, le premier cas est confirmé le 17 mars 2020 ce qui en fait le dernier pays européen à enregistrer un cas de SARS-CoV-2.
 À la date du 17 septembre 2022, le bilan est de 2 779 morts.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Mont%C3%A9n%C3%A9gro</t>
+          <t>Pandémie_de_Covid-19_au_Monténégro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 12 janvier 2020, l'Organisation mondiale de la santé (OMS) a confirmé qu'un nouveau coronavirus était à l'origine d'une maladie respiratoire chez un groupe de personnes de la ville de Wuhan, dans la province du Hubei, en Chine, qui a été signalée à l'OMS le 31 décembre 2019[5],[6].
-Le taux de létalité lié à la Covid-19 a été beaucoup plus faible que le SRAS de 2003[7],[8] mais la transmission a été significativement plus élevée, avec un nombre total de décès important[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 12 janvier 2020, l'Organisation mondiale de la santé (OMS) a confirmé qu'un nouveau coronavirus était à l'origine d'une maladie respiratoire chez un groupe de personnes de la ville de Wuhan, dans la province du Hubei, en Chine, qui a été signalée à l'OMS le 31 décembre 2019,.
+Le taux de létalité lié à la Covid-19 a été beaucoup plus faible que le SRAS de 2003, mais la transmission a été significativement plus élevée, avec un nombre total de décès important.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Mont%C3%A9n%C3%A9gro</t>
+          <t>Pandémie_de_Covid-19_au_Monténégro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,30 +560,28 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mars 2020
-Au 4 mai 2020, le nombre total de cas au Monténégro est de 324[10].
-Le 17 mars, le Monténégro a confirmé ses trois premiers cas de Covid-19, une femme née en 1948 et 1973, un homme né en 1963 dont deux dans la capitale Podgorica, l'autre à Ulcinj[11]. L'un des deux premiers cas est arrivé 12 jours plus tôt des États-Unis. Les deux autres sont arrivés 5 jours plus tôt d'Espagne et étaient sous surveillance médicale[12].
-Le 18 mars, 6 autres cas ont été confirmés. L'un d'eux n'avait aucun lien avec les deux cas de la veille[13].
-Le 19 mars, 2 autres cas ont été confirmés, portant à 10 le nombre de personnes infectées dans le pays. Plus tard dans la journée, trois autres cas ont été confirmés, portant le nombre de personnes infectées dans le pays à 13[14].
-Le 20 mars, le 14e cas a été identifié à Herceg Novi[15].
-Le 21 mars, 2 nouveaux cas ont été confirmés[16].
-Le 22 mars, six nouveaux cas ont été confirmés[17]. L'un de ces cas, un homme qui avait voyagé il y a plusieurs jours de la Serbie, âgé de 65 ans, est décédé un jour après son admission à l'hôpital, devenant ainsi le premier cas mortel du pays[18].
-Le 23 mars, cinq nouveaux cas ont été confirmés[19].
-Le 24 mars, 18 nouveaux cas ont été confirmés[20]. Comme 15 des nouveaux cas ont été enregistrés à Tuzi, le gouvernement a imposé un verrouillage complet à Tuzi[21]. Tuzi est la première municipalité du Monténégro à être totalement bloquée pendant la pandémie, seuls les services essentiels étant autorisés à fonctionner. En une semaine (24 mars), 51 cas ont été signalés et après deux semaines, il y a eu au total 120 cas (31 mars). Les cas répertoriés comptent pour 18 % des cas signalés, 72 % des cas ont été infectés en raison du contact avec les cas primaires, tandis que l'origine de l'infection des 10 % restants n'est pas certaine[22]. Le gouvernement du Monténégro estime que le pays a besoin de 59,2 millions d'euros de secours privés et internationaux pour résoudre les problèmes sanitaires, sociaux et économiques liés à la Covid-19[23]. 68 jours après le signalement du premier cas de la Covid-19 dans le pays, le Monténégro devient le premier pays d'Europe à ne plus compter officiellement de cas actif de coronavirus sur son sol[24],[25].
-Le 25 mars, six nouveaux cas ont été confirmés[26],[27].
-Le 26 mars, 14 nouveaux cas ont été confirmés[28]. Plus tard dans la journée, deux autres cas ont été confirmés, tandis que 6 258 personnes étaient sous contrôle médical[29].
-Le 27 mars à 7h45, un autre cas a été confirmé[30]. Plus tard dans la journée (17 h 45), cinq autres cas ont été confirmés, tous à Andrijevica, tandis que 6 278 personnes étaient sous contrôle médical[31]. Plus tard dans la journée (21 h), sept autres cas ont été confirmés, 4 à Tuzi et 3 à Bar[31].
-Le 28 mars, deux nouveaux cas ont été confirmés, chacun à Tivat et à Podgorica[32].
-Le 29 mars, un nouveau cas a été confirmé[33].
-Le 30 mars, 6 nouveaux cas ont été confirmés[34].
-Le 31 mars, 18 nouveaux cas ont été confirmés[35].
-Avril 2020
-Le 1er avril, 14 nouveaux cas ont été confirmés[36].
-Le 2 avril, 7 nouveaux cas ont été confirmés[réf. nécessaire].
-Le 3 avril, le premier rétablissement a été signalé, un homme de 46 ans originaire de Bar[réf. nécessaire].
-Mai 2020
-Les derniers cas actifs de la Covid-19 sont déclarés guéris le 24 mai 2020[24].
-Au 15 juillet 2020, un total de 28 219 tests ont été effectués au Monténégro pour la Covid-19 (44 792 tests par million d'habitants)[37].
+          <t>Mars 2020</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 4 mai 2020, le nombre total de cas au Monténégro est de 324.
+Le 17 mars, le Monténégro a confirmé ses trois premiers cas de Covid-19, une femme née en 1948 et 1973, un homme né en 1963 dont deux dans la capitale Podgorica, l'autre à Ulcinj. L'un des deux premiers cas est arrivé 12 jours plus tôt des États-Unis. Les deux autres sont arrivés 5 jours plus tôt d'Espagne et étaient sous surveillance médicale.
+Le 18 mars, 6 autres cas ont été confirmés. L'un d'eux n'avait aucun lien avec les deux cas de la veille.
+Le 19 mars, 2 autres cas ont été confirmés, portant à 10 le nombre de personnes infectées dans le pays. Plus tard dans la journée, trois autres cas ont été confirmés, portant le nombre de personnes infectées dans le pays à 13.
+Le 20 mars, le 14e cas a été identifié à Herceg Novi.
+Le 21 mars, 2 nouveaux cas ont été confirmés.
+Le 22 mars, six nouveaux cas ont été confirmés. L'un de ces cas, un homme qui avait voyagé il y a plusieurs jours de la Serbie, âgé de 65 ans, est décédé un jour après son admission à l'hôpital, devenant ainsi le premier cas mortel du pays.
+Le 23 mars, cinq nouveaux cas ont été confirmés.
+Le 24 mars, 18 nouveaux cas ont été confirmés. Comme 15 des nouveaux cas ont été enregistrés à Tuzi, le gouvernement a imposé un verrouillage complet à Tuzi. Tuzi est la première municipalité du Monténégro à être totalement bloquée pendant la pandémie, seuls les services essentiels étant autorisés à fonctionner. En une semaine (24 mars), 51 cas ont été signalés et après deux semaines, il y a eu au total 120 cas (31 mars). Les cas répertoriés comptent pour 18 % des cas signalés, 72 % des cas ont été infectés en raison du contact avec les cas primaires, tandis que l'origine de l'infection des 10 % restants n'est pas certaine. Le gouvernement du Monténégro estime que le pays a besoin de 59,2 millions d'euros de secours privés et internationaux pour résoudre les problèmes sanitaires, sociaux et économiques liés à la Covid-19. 68 jours après le signalement du premier cas de la Covid-19 dans le pays, le Monténégro devient le premier pays d'Europe à ne plus compter officiellement de cas actif de coronavirus sur son sol,.
+Le 25 mars, six nouveaux cas ont été confirmés,.
+Le 26 mars, 14 nouveaux cas ont été confirmés. Plus tard dans la journée, deux autres cas ont été confirmés, tandis que 6 258 personnes étaient sous contrôle médical.
+Le 27 mars à 7h45, un autre cas a été confirmé. Plus tard dans la journée (17 h 45), cinq autres cas ont été confirmés, tous à Andrijevica, tandis que 6 278 personnes étaient sous contrôle médical. Plus tard dans la journée (21 h), sept autres cas ont été confirmés, 4 à Tuzi et 3 à Bar.
+Le 28 mars, deux nouveaux cas ont été confirmés, chacun à Tivat et à Podgorica.
+Le 29 mars, un nouveau cas a été confirmé.
+Le 30 mars, 6 nouveaux cas ont été confirmés.
+Le 31 mars, 18 nouveaux cas ont été confirmés.
 </t>
         </is>
       </c>
@@ -580,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Mont%C3%A9n%C3%A9gro</t>
+          <t>Pandémie_de_Covid-19_au_Monténégro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,12 +607,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Conséquences économiques</t>
+          <t>Chronologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Monténégro a enregistré en 2020 une récession de plus de 12 %, l’économie du pays étant très dépendante de l’activité touristique[38].
+          <t>Avril 2020</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er avril, 14 nouveaux cas ont été confirmés.
+Le 2 avril, 7 nouveaux cas ont été confirmés[réf. nécessaire].
+Le 3 avril, le premier rétablissement a été signalé, un homme de 46 ans originaire de Bar[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -611,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Mont%C3%A9n%C3%A9gro</t>
+          <t>Pandémie_de_Covid-19_au_Monténégro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,10 +646,83 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mai 2020</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les derniers cas actifs de la Covid-19 sont déclarés guéris le 24 mai 2020.
+Au 15 juillet 2020, un total de 28 219 tests ont été effectués au Monténégro pour la Covid-19 (44 792 tests par million d'habitants).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_au_Monténégro</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_au_Mont%C3%A9n%C3%A9gro</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Conséquences économiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Monténégro a enregistré en 2020 une récession de plus de 12 %, l’économie du pays étant très dépendante de l’activité touristique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_au_Monténégro</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_au_Mont%C3%A9n%C3%A9gro</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
